--- a/biology/Médecine/Giuseppe_Sanarelli/Giuseppe_Sanarelli.xlsx
+++ b/biology/Médecine/Giuseppe_Sanarelli/Giuseppe_Sanarelli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Giuseppe Sanarelli (né le 24 avril 1864 à Monte San Savino, une commune de la province de Arezzo, en Toscane et mort le 6 avril 1940 à Rome) est un médecin et bactériologiste italien de la fin du XIXe et du début du XXe siècle.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Giuseppe Sanarelli enseigne l’hygiène à l'université de Sienne (1895), à l'université de Bologne (1898) et à l'université de Rome « La Sapienza » (1915), dont il devient recteur en 1922-1923. Il fonde et dirige l'Institut d’hygiène expérimentale de l’université de Montevideo
 Il travaille notamment sur le bacille de la fièvre jaune et est le premier à faire le lien entre le Bacillus icteroides et cette maladie. Ce sera prouvé par James Carroll (1854-1907).
@@ -543,7 +557,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lo stato attuale del problema malarico. Rilievi e proposte (Rome, 1925).</t>
         </is>
